--- a/doc/simple MBTI test.xlsx
+++ b/doc/simple MBTI test.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="136">
   <si>
     <t>编号</t>
   </si>
@@ -423,6 +423,10 @@
   </si>
   <si>
     <t>每一个问题都有两个选择，在你认为正确的选择项后面的白框内作出选择的标记。当完成四个维度的问题后，在最底下汇总一栏中，各计算两列答案被选择的总数。</t>
+  </si>
+  <si>
+    <t>add one test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -591,12 +595,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -623,6 +621,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -965,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -982,14 +986,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -1014,10 +1018,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
+      <c r="A6" s="17">
         <v>1</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1027,8 +1031,8 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
@@ -1036,10 +1040,10 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+      <c r="A8" s="17">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1049,8 +1053,8 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
@@ -1058,10 +1062,10 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
+      <c r="A10" s="17">
         <v>3</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1071,8 +1075,8 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1080,10 +1084,10 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="8">
+      <c r="A12" s="17">
         <v>4</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1093,8 +1097,8 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="5" t="s">
         <v>22</v>
       </c>
@@ -1102,10 +1106,10 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="8">
+      <c r="A14" s="17">
         <v>5</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1115,8 +1119,8 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
@@ -1124,10 +1128,10 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="8">
+      <c r="A16" s="17">
         <v>6</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1137,8 +1141,8 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
@@ -1146,10 +1150,10 @@
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="8">
+      <c r="A18" s="17">
         <v>7</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1159,8 +1163,8 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="5" t="s">
         <v>28</v>
       </c>
@@ -1168,7 +1172,7 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="8">
+      <c r="A20" s="17">
         <v>8</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -1181,7 +1185,7 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="19"/>
       <c r="C21" s="5" t="s">
         <v>30</v>
@@ -1190,7 +1194,7 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="8">
+      <c r="A22" s="17">
         <v>9</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -1203,7 +1207,7 @@
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="19"/>
       <c r="C23" s="5" t="s">
         <v>32</v>
@@ -1212,7 +1216,7 @@
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="8">
+      <c r="A24" s="17">
         <v>10</v>
       </c>
       <c r="B24" s="19" t="s">
@@ -1225,7 +1229,7 @@
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="8"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="19"/>
       <c r="C25" s="5" t="s">
         <v>34</v>
@@ -1234,23 +1238,36 @@
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>135</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="A26:C27"/>
     <mergeCell ref="D26:D27"/>
@@ -1267,14 +1284,6 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1315,10 +1324,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1328,8 +1337,8 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="5" t="s">
         <v>38</v>
       </c>
@@ -1337,10 +1346,10 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1350,8 +1359,8 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="5" t="s">
         <v>43</v>
       </c>
@@ -1359,10 +1368,10 @@
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
+      <c r="A6" s="17">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="18" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1372,8 +1381,8 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="5" t="s">
         <v>46</v>
       </c>
@@ -1381,10 +1390,10 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+      <c r="A8" s="17">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1394,8 +1403,8 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="5" t="s">
         <v>49</v>
       </c>
@@ -1403,10 +1412,10 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
+      <c r="A10" s="17">
         <v>5</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1416,8 +1425,8 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="5" t="s">
         <v>52</v>
       </c>
@@ -1425,10 +1434,10 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="8">
+      <c r="A12" s="17">
         <v>6</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="18" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1438,8 +1447,8 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="5" t="s">
         <v>55</v>
       </c>
@@ -1447,10 +1456,10 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="8">
+      <c r="A14" s="17">
         <v>7</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="18" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -1460,8 +1469,8 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="5" t="s">
         <v>58</v>
       </c>
@@ -1469,10 +1478,10 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="8">
+      <c r="A16" s="17">
         <v>8</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1482,8 +1491,8 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="5" t="s">
         <v>60</v>
       </c>
@@ -1491,10 +1500,10 @@
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="8">
+      <c r="A18" s="17">
         <v>9</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1504,8 +1513,8 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="5" t="s">
         <v>62</v>
       </c>
@@ -1513,10 +1522,10 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="8">
+      <c r="A20" s="17">
         <v>10</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1526,8 +1535,8 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="5" t="s">
         <v>64</v>
       </c>
@@ -1535,46 +1544,46 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1623,10 +1632,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="18" t="s">
         <v>67</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1636,8 +1645,8 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="5" t="s">
         <v>72</v>
       </c>
@@ -1645,10 +1654,10 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1658,8 +1667,8 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="5" t="s">
         <v>74</v>
       </c>
@@ -1667,10 +1676,10 @@
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
+      <c r="A7" s="17">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="18" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1680,8 +1689,8 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="5" t="s">
         <v>76</v>
       </c>
@@ -1689,10 +1698,10 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
+      <c r="A9" s="17">
         <v>4</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="18" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1702,8 +1711,8 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="5" t="s">
         <v>78</v>
       </c>
@@ -1711,10 +1720,10 @@
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
+      <c r="A11" s="17">
         <v>5</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1724,8 +1733,8 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="5" t="s">
         <v>80</v>
       </c>
@@ -1733,10 +1742,10 @@
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8">
+      <c r="A13" s="17">
         <v>6</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1746,8 +1755,8 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="5" t="s">
         <v>82</v>
       </c>
@@ -1755,10 +1764,10 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="8">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1768,8 +1777,8 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="5" t="s">
         <v>84</v>
       </c>
@@ -1777,10 +1786,10 @@
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="8">
+      <c r="A17" s="17">
         <v>8</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1790,8 +1799,8 @@
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="5" t="s">
         <v>86</v>
       </c>
@@ -1799,10 +1808,10 @@
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="8">
+      <c r="A19" s="17">
         <v>9</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1812,8 +1821,8 @@
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="5" t="s">
         <v>88</v>
       </c>
@@ -1821,10 +1830,10 @@
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8">
+      <c r="A21" s="17">
         <v>10</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1834,8 +1843,8 @@
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="5" t="s">
         <v>90</v>
       </c>
@@ -1843,46 +1852,46 @@
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1923,10 +1932,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="18" t="s">
         <v>93</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1936,8 +1945,8 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="5" t="s">
         <v>103</v>
       </c>
@@ -1945,10 +1954,10 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="18" t="s">
         <v>94</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1958,8 +1967,8 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="5" t="s">
         <v>105</v>
       </c>
@@ -1967,10 +1976,10 @@
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
+      <c r="A6" s="17">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="18" t="s">
         <v>95</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1980,8 +1989,8 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="5" t="s">
         <v>107</v>
       </c>
@@ -1989,10 +1998,10 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+      <c r="A8" s="17">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="18" t="s">
         <v>96</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -2002,8 +2011,8 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="5" t="s">
         <v>110</v>
       </c>
@@ -2011,10 +2020,10 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
+      <c r="A10" s="17">
         <v>5</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="18" t="s">
         <v>97</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -2024,8 +2033,8 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="5" t="s">
         <v>109</v>
       </c>
@@ -2033,10 +2042,10 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="8">
+      <c r="A12" s="17">
         <v>6</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="18" t="s">
         <v>98</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -2046,8 +2055,8 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="5" t="s">
         <v>113</v>
       </c>
@@ -2055,10 +2064,10 @@
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="8">
+      <c r="A14" s="17">
         <v>7</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="18" t="s">
         <v>99</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -2068,8 +2077,8 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="5" t="s">
         <v>115</v>
       </c>
@@ -2077,10 +2086,10 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="8">
+      <c r="A16" s="17">
         <v>8</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="18" t="s">
         <v>100</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -2090,8 +2099,8 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="5" t="s">
         <v>117</v>
       </c>
@@ -2099,10 +2108,10 @@
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="8">
+      <c r="A18" s="17">
         <v>9</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="18" t="s">
         <v>101</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -2112,8 +2121,8 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="5" t="s">
         <v>119</v>
       </c>
@@ -2121,10 +2130,10 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="8">
+      <c r="A20" s="17">
         <v>10</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -2134,8 +2143,8 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="5" t="s">
         <v>121</v>
       </c>
@@ -2143,46 +2152,46 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2266,6 +2275,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <HideFromDelve xmlns="71c5aaf6-e6ce-465b-b873-5148d2a4c105">false</HideFromDelve>
+    <_dlc_DocId xmlns="71c5aaf6-e6ce-465b-b873-5148d2a4c105">24INP42IMQMS-779764229-55</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="71c5aaf6-e6ce-465b-b873-5148d2a4c105">
+      <Url>https://nokia.sharepoint.com/sites/SRANHZPRODDocuments/_layouts/15/DocIdRedir.aspx?ID=24INP42IMQMS-779764229-55</Url>
+      <Description>24INP42IMQMS-779764229-55</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004C10DCCE60022E4EBBDC8EA883CBA38E" ma:contentTypeVersion="50" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2aa244def1b5f7eb4fbd8d0fab5872d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71c5aaf6-e6ce-465b-b873-5148d2a4c105" xmlns:ns3="707450a6-f243-4542-acc8-74a26cefb4f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="497e3ff911ee23ce01cf7d5b5099b85f" ns2:_="" ns3:_="">
     <xsd:import namespace="71c5aaf6-e6ce-465b-b873-5148d2a4c105"/>
@@ -2451,29 +2482,12 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <HideFromDelve xmlns="71c5aaf6-e6ce-465b-b873-5148d2a4c105">false</HideFromDelve>
-    <_dlc_DocId xmlns="71c5aaf6-e6ce-465b-b873-5148d2a4c105">24INP42IMQMS-779764229-55</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="71c5aaf6-e6ce-465b-b873-5148d2a4c105">
-      <Url>https://nokia.sharepoint.com/sites/SRANHZPRODDocuments/_layouts/15/DocIdRedir.aspx?ID=24INP42IMQMS-779764229-55</Url>
-      <Description>24INP42IMQMS-779764229-55</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="34c87397-5fc1-491e-85e7-d6110dbe9cbd" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -2523,26 +2537,10 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="34c87397-5fc1-491e-85e7-d6110dbe9cbd" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19D7C807-F997-49F4-B15C-DECA304A5639}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9B20F32-7375-4242-B29C-6BF451786430}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71c5aaf6-e6ce-465b-b873-5148d2a4c105"/>
-    <ds:schemaRef ds:uri="707450a6-f243-4542-acc8-74a26cefb4f0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2565,25 +2563,36 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9B20F32-7375-4242-B29C-6BF451786430}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19D7C807-F997-49F4-B15C-DECA304A5639}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71c5aaf6-e6ce-465b-b873-5148d2a4c105"/>
+    <ds:schemaRef ds:uri="707450a6-f243-4542-acc8-74a26cefb4f0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{767DB0E5-6B4B-4B91-BC42-8FD9915BF692}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD0D4D71-98EC-4AA9-B188-CDC223EA05B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{767DB0E5-6B4B-4B91-BC42-8FD9915BF692}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>